--- a/4/4.xlsx
+++ b/4/4.xlsx
@@ -270,11 +270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="8"/>
-        <c:axId val="140672512"/>
-        <c:axId val="161127744"/>
+        <c:axId val="38505472"/>
+        <c:axId val="38558464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140672512"/>
+        <c:axId val="38505472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,7 +283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161127744"/>
+        <c:crossAx val="38558464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -291,7 +291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161127744"/>
+        <c:axId val="38558464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140672512"/>
+        <c:crossAx val="38505472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -402,11 +402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="8"/>
-        <c:axId val="160836096"/>
-        <c:axId val="214715776"/>
+        <c:axId val="157726208"/>
+        <c:axId val="39357824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160836096"/>
+        <c:axId val="157726208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214715776"/>
+        <c:crossAx val="39357824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -423,7 +423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214715776"/>
+        <c:axId val="39357824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160836096"/>
+        <c:crossAx val="157726208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,12 +882,12 @@
   <dimension ref="B1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
@@ -908,9 +908,10 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T1" s="7"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J3" s="3">
         <v>1</v>
       </c>
@@ -918,7 +919,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J4" s="3">
         <v>2</v>
       </c>
@@ -926,7 +927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J5" s="3">
         <v>3</v>
       </c>
@@ -934,7 +935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J6" s="3">
         <v>4</v>
       </c>
@@ -942,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J7" s="3">
         <v>5</v>
       </c>
@@ -950,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J8" s="3">
         <v>6</v>
       </c>
@@ -958,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J9" s="3">
         <v>7</v>
       </c>
@@ -966,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J10" s="3">
         <v>8</v>
       </c>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J11" s="3">
         <v>9</v>
       </c>
@@ -982,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J12" s="3">
         <v>10</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J13" s="3">
         <v>11</v>
       </c>
@@ -998,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J14" s="3">
         <v>12</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J15" s="3">
         <v>13</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1164,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:T1"/>
     <mergeCell ref="B22:U22"/>
+    <mergeCell ref="B1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
